--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kpi_tech" sheetId="2" r:id="rId1"/>
@@ -194,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -265,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -274,23 +274,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -298,23 +296,55 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -326,87 +356,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -651,19 +600,6 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -677,128 +613,124 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1096,622 +1028,622 @@
   <dimension ref="B2:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.125</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1.375</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="C4" s="7">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.97340425531914898</v>
+      </c>
+      <c r="E4" s="7">
+        <v>-2.6595744680851019E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-2.6595744680851019E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="J4" s="7">
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
-        <v>1.125</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="C5" s="49">
+        <v>0.91803278688524592</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0.89074803149606296</v>
+      </c>
+      <c r="E5" s="49">
+        <v>-0.10925196850393704</v>
+      </c>
+      <c r="F5" s="49">
+        <v>-0.4</v>
+      </c>
+      <c r="G5" s="49">
+        <v>-0.10853478046373954</v>
+      </c>
+      <c r="H5" s="49">
+        <v>0</v>
+      </c>
+      <c r="I5" s="49">
+        <v>0</v>
+      </c>
+      <c r="J5" s="49">
+        <v>0</v>
+      </c>
+      <c r="K5" s="49">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="L5" s="49">
+        <v>0</v>
+      </c>
+      <c r="M5" s="49">
+        <v>0</v>
+      </c>
+      <c r="N5" s="49">
+        <v>0</v>
+      </c>
+      <c r="O5" s="49">
+        <v>0</v>
+      </c>
+      <c r="P5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="49">
+        <v>0.92561983471074383</v>
+      </c>
+      <c r="D6" s="49">
+        <v>0.91321897073662972</v>
+      </c>
+      <c r="E6" s="49">
+        <v>-8.678102926337028E-2</v>
+      </c>
+      <c r="F6" s="49">
+        <v>-0.5</v>
+      </c>
+      <c r="G6" s="49">
+        <v>-8.5526315789473673E-2</v>
+      </c>
+      <c r="H6" s="49">
+        <v>0</v>
+      </c>
+      <c r="I6" s="49">
+        <v>0</v>
+      </c>
+      <c r="J6" s="49">
+        <v>0</v>
+      </c>
+      <c r="K6" s="49">
+        <v>0</v>
+      </c>
+      <c r="L6" s="49">
+        <v>0</v>
+      </c>
+      <c r="M6" s="49">
+        <v>0</v>
+      </c>
+      <c r="N6" s="49">
+        <v>0</v>
+      </c>
+      <c r="O6" s="49">
+        <v>0</v>
+      </c>
+      <c r="P6" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="49">
+        <v>1</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1</v>
+      </c>
+      <c r="E7" s="49">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49">
+        <v>0</v>
+      </c>
+      <c r="H7" s="49">
+        <v>0</v>
+      </c>
+      <c r="I7" s="49">
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="J7" s="49">
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="K7" s="49">
+        <v>0</v>
+      </c>
+      <c r="L7" s="49">
+        <v>0</v>
+      </c>
+      <c r="M7" s="49">
+        <v>0</v>
+      </c>
+      <c r="N7" s="49">
+        <v>0</v>
+      </c>
+      <c r="O7" s="49">
+        <v>0</v>
+      </c>
+      <c r="P7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="49">
+        <v>0.9145299145299145</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0.87064676616915426</v>
+      </c>
+      <c r="E8" s="49">
+        <v>-0.12935323383084574</v>
+      </c>
+      <c r="F8" s="49">
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="G8" s="49">
+        <v>-0.12843578210894557</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0</v>
+      </c>
+      <c r="I8" s="49">
+        <v>-0.1</v>
+      </c>
+      <c r="J8" s="49">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="K8" s="49">
+        <v>0</v>
+      </c>
+      <c r="L8" s="49">
+        <v>0</v>
+      </c>
+      <c r="M8" s="49">
+        <v>0</v>
+      </c>
+      <c r="N8" s="49">
+        <v>0</v>
+      </c>
+      <c r="O8" s="49">
+        <v>0</v>
+      </c>
+      <c r="P8" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="49">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49">
+        <v>0</v>
+      </c>
+      <c r="I9" s="49">
+        <v>0</v>
+      </c>
+      <c r="J9" s="49">
+        <v>0</v>
+      </c>
+      <c r="K9" s="49">
+        <v>0</v>
+      </c>
+      <c r="L9" s="49">
         <v>-1</v>
       </c>
-      <c r="F5" s="12">
-        <v>1.375</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1.375</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1.125</v>
-      </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <v>1</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="M9" s="49">
+        <v>0</v>
+      </c>
+      <c r="N9" s="49">
         <v>-1</v>
       </c>
-      <c r="L5" s="12">
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="M5" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="N5" s="14">
-        <v>1.75</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="K6" s="12">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="L6" s="12">
-        <v>1.5833333333333335</v>
-      </c>
-      <c r="M6" s="12">
-        <v>1.5833333333333335</v>
-      </c>
-      <c r="N6" s="14">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="O6" s="14">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1.125</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="M7" s="12">
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="N7" s="14">
-        <v>1</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1.125</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12">
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="M8" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N8" s="14">
-        <v>1</v>
-      </c>
-      <c r="O8" s="14">
-        <v>0</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12">
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="M9" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="N9" s="14">
-        <v>1</v>
-      </c>
-      <c r="O9" s="14">
-        <v>0</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="O9" s="49">
+        <v>0</v>
+      </c>
+      <c r="P9" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="M10" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="N10" s="14">
-        <v>1</v>
-      </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
+      <c r="C10" s="49">
+        <v>0.95726495726495731</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0.94467640918580376</v>
+      </c>
+      <c r="E10" s="49">
+        <v>-5.5323590814196244E-2</v>
+      </c>
+      <c r="F10" s="49">
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="49">
+        <v>-5.392670157068058E-2</v>
+      </c>
+      <c r="H10" s="49">
+        <v>0</v>
+      </c>
+      <c r="I10" s="49">
+        <v>0</v>
+      </c>
+      <c r="J10" s="49">
+        <v>0</v>
+      </c>
+      <c r="K10" s="49">
+        <v>0</v>
+      </c>
+      <c r="L10" s="49">
+        <v>0</v>
+      </c>
+      <c r="M10" s="49">
+        <v>0</v>
+      </c>
+      <c r="N10" s="49">
+        <v>0</v>
+      </c>
+      <c r="O10" s="49">
+        <v>0</v>
+      </c>
+      <c r="P10" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="12">
-        <v>1.5833333333333335</v>
-      </c>
-      <c r="M11" s="12">
-        <v>1.5833333333333335</v>
-      </c>
-      <c r="N11" s="14">
-        <v>1</v>
-      </c>
-      <c r="O11" s="14">
+      <c r="C11" s="49">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49">
+        <v>1</v>
+      </c>
+      <c r="E11" s="49">
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <v>0</v>
+      </c>
+      <c r="G11" s="49">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0</v>
+      </c>
+      <c r="I11" s="49">
+        <v>0</v>
+      </c>
+      <c r="J11" s="49">
+        <v>0</v>
+      </c>
+      <c r="K11" s="49">
+        <v>0</v>
+      </c>
+      <c r="L11" s="49">
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="M11" s="49">
+        <v>0</v>
+      </c>
+      <c r="N11" s="49">
+        <v>0</v>
+      </c>
+      <c r="O11" s="49">
         <v>-0.22727272727272729</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="12">
-        <v>1.5833333333333335</v>
-      </c>
-      <c r="M12" s="12">
-        <v>1.5833333333333335</v>
-      </c>
-      <c r="N12" s="14">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0</v>
-      </c>
-      <c r="P12" s="14">
+      <c r="C12" s="49">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0.92346938775510201</v>
+      </c>
+      <c r="E12" s="49">
+        <v>-7.6530612244897989E-2</v>
+      </c>
+      <c r="F12" s="49">
+        <v>0</v>
+      </c>
+      <c r="G12" s="49">
+        <v>-7.6647930505876372E-2</v>
+      </c>
+      <c r="H12" s="49">
+        <v>0</v>
+      </c>
+      <c r="I12" s="49">
+        <v>0</v>
+      </c>
+      <c r="J12" s="49">
+        <v>0</v>
+      </c>
+      <c r="K12" s="49">
+        <v>0</v>
+      </c>
+      <c r="L12" s="49">
+        <v>0</v>
+      </c>
+      <c r="M12" s="49">
+        <v>0</v>
+      </c>
+      <c r="N12" s="49">
+        <v>0</v>
+      </c>
+      <c r="O12" s="49">
+        <v>0</v>
+      </c>
+      <c r="P12" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="I13" s="12">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
-        <v>1.25</v>
-      </c>
-      <c r="K13" s="12">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="L13" s="12">
-        <v>1</v>
-      </c>
-      <c r="M13" s="12">
-        <v>1</v>
-      </c>
-      <c r="N13" s="14">
-        <v>1</v>
-      </c>
-      <c r="O13" s="14">
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
+      <c r="C13" s="49">
+        <v>1</v>
+      </c>
+      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+      <c r="E13" s="49">
+        <v>0</v>
+      </c>
+      <c r="F13" s="49">
+        <v>0</v>
+      </c>
+      <c r="G13" s="49">
+        <v>0</v>
+      </c>
+      <c r="H13" s="49">
+        <v>0</v>
+      </c>
+      <c r="I13" s="49">
+        <v>0</v>
+      </c>
+      <c r="J13" s="49">
+        <v>0</v>
+      </c>
+      <c r="K13" s="49">
+        <v>0</v>
+      </c>
+      <c r="L13" s="49">
+        <v>0</v>
+      </c>
+      <c r="M13" s="49">
+        <v>0</v>
+      </c>
+      <c r="N13" s="49">
+        <v>0</v>
+      </c>
+      <c r="O13" s="49">
+        <v>0</v>
+      </c>
+      <c r="P13" s="50">
         <v>-0.66666666666666674</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4">
-        <v>1.5833333333333335</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H14" s="12">
-        <v>1.75</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="J14" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="K14" s="12">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="L14" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="12">
-        <v>1</v>
-      </c>
-      <c r="N14" s="14">
-        <v>1</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
+      <c r="C14" s="49">
+        <v>0.95726495726495731</v>
+      </c>
+      <c r="D14" s="49">
+        <v>0.93782383419689119</v>
+      </c>
+      <c r="E14" s="49">
+        <v>-6.2176165803108807E-2</v>
+      </c>
+      <c r="F14" s="49">
+        <v>-0.625</v>
+      </c>
+      <c r="G14" s="49">
+        <v>-5.9833506763787736E-2</v>
+      </c>
+      <c r="H14" s="49">
+        <v>0</v>
+      </c>
+      <c r="I14" s="49">
+        <v>0</v>
+      </c>
+      <c r="J14" s="49">
+        <v>0</v>
+      </c>
+      <c r="K14" s="49">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="L14" s="49">
+        <v>0</v>
+      </c>
+      <c r="M14" s="49">
+        <v>0</v>
+      </c>
+      <c r="N14" s="49">
+        <v>0</v>
+      </c>
+      <c r="O14" s="49">
+        <v>0</v>
+      </c>
+      <c r="P14" s="50">
         <v>-0.66666666666666674</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="15">
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="M15" s="15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="16">
-        <v>1</v>
-      </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="16">
+      <c r="C15" s="51">
+        <v>1</v>
+      </c>
+      <c r="D15" s="51">
+        <v>1</v>
+      </c>
+      <c r="E15" s="51">
+        <v>0</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0</v>
+      </c>
+      <c r="H15" s="51">
+        <v>0</v>
+      </c>
+      <c r="I15" s="51">
+        <v>0</v>
+      </c>
+      <c r="J15" s="51">
+        <v>0</v>
+      </c>
+      <c r="K15" s="51">
+        <v>0</v>
+      </c>
+      <c r="L15" s="51">
+        <v>0</v>
+      </c>
+      <c r="M15" s="51">
+        <v>0</v>
+      </c>
+      <c r="N15" s="51">
+        <v>0</v>
+      </c>
+      <c r="O15" s="51">
+        <v>0</v>
+      </c>
+      <c r="P15" s="52">
         <v>-0.58830409356725144</v>
       </c>
     </row>
@@ -1725,8 +1657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1736,533 +1668,533 @@
   <sheetData>
     <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>1.125</v>
       </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
         <v>1.125</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="7">
         <v>1.125</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="7">
         <v>1.125</v>
       </c>
-      <c r="I4" s="12">
-        <v>1</v>
-      </c>
-      <c r="J4" s="12">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12">
-        <v>1</v>
-      </c>
-      <c r="L4" s="12">
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
         <v>1.4166666666666667</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="7">
         <v>1.4166666666666667</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="9">
         <v>1.375</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>1.125</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
         <v>-1</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="7">
         <v>1.375</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="7">
         <v>1.375</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="7">
         <v>1.125</v>
       </c>
-      <c r="I5" s="12">
-        <v>1</v>
-      </c>
-      <c r="J5" s="12">
-        <v>1</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
         <v>-1</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="7">
         <v>1.4166666666666667</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="7">
         <v>1.5</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="9">
         <v>1.75</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>1.1666666666666667</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
         <v>1.25</v>
       </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
         <v>1.1666666666666667</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="7">
         <v>1.1666666666666667</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="7">
         <v>1.5833333333333335</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="7">
         <v>1.5833333333333335</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="9">
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
         <v>-1</v>
       </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
         <v>1.125</v>
       </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
         <v>-1</v>
       </c>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
         <v>-1</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="7">
         <v>1.4166666666666667</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
         <v>-1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <v>1.125</v>
       </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
         <v>-1</v>
       </c>
-      <c r="J8" s="12">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12">
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
         <v>1.4166666666666667</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
         <v>1.5</v>
       </c>
-      <c r="K9" s="12">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12">
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
         <v>1.4166666666666667</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="7">
         <v>1.75</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <v>-1</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <v>1.5</v>
       </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
         <v>-1</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
         <v>-1</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="7">
         <v>1.5833333333333335</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="7">
         <v>1.5833333333333335</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>1.1666666666666667</v>
       </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <v>1.1666666666666667</v>
       </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
         <v>1.5</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="7">
         <v>1.4166666666666667</v>
       </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="12">
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
         <v>1.5833333333333335</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="7">
         <v>1.5833333333333335</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="9">
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <v>1.25</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>1.25</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="I13" s="12">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
         <v>1.25</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="7">
         <v>1.0833333333333333</v>
       </c>
-      <c r="L13" s="12">
-        <v>1</v>
-      </c>
-      <c r="M13" s="12">
-        <v>1</v>
-      </c>
-      <c r="N13" s="14">
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>1.5833333333333335</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="7">
         <v>1.75</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>1.4166666666666667</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <v>1.3333333333333333</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="7">
         <v>1.75</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="7">
         <v>1.1666666666666667</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <v>1.5</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="7">
         <v>1.0833333333333333</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>-1</v>
       </c>
-      <c r="M14" s="12">
-        <v>1</v>
-      </c>
-      <c r="N14" s="14">
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1</v>
-      </c>
-      <c r="K15" s="15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10">
         <v>1.0833333333333333</v>
       </c>
-      <c r="M15" s="15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="16">
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+      <c r="N15" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2283,390 +2215,390 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="60" x14ac:dyDescent="0.2">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="22">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="19">
         <v>1.05</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="19">
         <v>1.0666666666666667</v>
       </c>
-      <c r="F5" s="24">
-        <v>1</v>
-      </c>
-      <c r="G5" s="24">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24">
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
         <v>1.05</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="19">
         <v>1.0333333333333334</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="19">
         <v>1.0333333333333334</v>
       </c>
-      <c r="L5" s="24">
-        <v>1</v>
-      </c>
-      <c r="M5" s="24">
+      <c r="L5" s="19">
+        <v>1</v>
+      </c>
+      <c r="M5" s="19">
         <v>1.0666666666666667</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="19">
         <v>1.0666666666666667</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B6" s="22">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="19">
         <v>0.9</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="19">
         <v>0.96666666666666667</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="19">
         <v>0.9</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="19">
         <v>0.95</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="19">
         <v>0.9</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="19">
         <v>0.95</v>
       </c>
-      <c r="J6" s="24">
-        <v>1</v>
-      </c>
-      <c r="K6" s="24">
-        <v>1</v>
-      </c>
-      <c r="L6" s="24">
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1</v>
+      </c>
+      <c r="L6" s="19">
         <v>0.95</v>
       </c>
-      <c r="M6" s="24">
-        <v>1</v>
-      </c>
-      <c r="N6" s="24">
+      <c r="M6" s="19">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
         <v>0.9</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="19">
         <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="B7" s="22">
+      <c r="B7" s="17">
         <v>3</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="19">
         <v>1.0333333333333334</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="19">
         <v>1.0333333333333334</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="19">
         <v>1.0333333333333334</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="19">
         <v>1.05</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="19">
         <v>1.0666666666666667</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="19">
         <v>1.0666666666666667</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="19">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B8" s="22">
+      <c r="B8" s="17">
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="19">
         <v>1.05</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="19">
         <v>0.96666666666666667</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="19">
         <v>0.95</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="19">
         <v>0.95</v>
       </c>
-      <c r="I8" s="24">
-        <v>1</v>
-      </c>
-      <c r="J8" s="24">
-        <v>1</v>
-      </c>
-      <c r="K8" s="24">
-        <v>1</v>
-      </c>
-      <c r="L8" s="24">
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="19">
         <v>1.0666666666666667</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="19">
         <v>1.0333333333333334</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="19">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B9" s="22">
+      <c r="B9" s="17">
         <v>5</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24">
-        <v>1</v>
-      </c>
-      <c r="I9" s="24">
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="19">
         <v>1.0666666666666667</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="19">
         <v>1.0333333333333334</v>
       </c>
-      <c r="L9" s="24">
-        <v>1</v>
-      </c>
-      <c r="M9" s="24">
+      <c r="L9" s="19">
+        <v>1</v>
+      </c>
+      <c r="M9" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="19">
         <v>1.0333333333333334</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B10" s="22">
+      <c r="B10" s="17">
         <v>6</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="19">
         <v>1.05</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="19">
         <v>1.05</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="19">
         <v>1.05</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="19">
         <v>1.0666666666666667</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="19">
         <v>1.0666666666666667</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="19">
         <v>1.05</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="22">
+      <c r="B11" s="17">
         <v>7</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="19">
         <v>1.05</v>
       </c>
-      <c r="E11" s="24">
-        <v>1</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="19">
         <v>1.05</v>
       </c>
-      <c r="I11" s="24">
-        <v>1</v>
-      </c>
-      <c r="J11" s="24">
-        <v>1</v>
-      </c>
-      <c r="K11" s="24">
-        <v>1</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
+      <c r="L11" s="19">
         <v>1.05</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="19">
         <v>1.05</v>
       </c>
     </row>
@@ -2691,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2702,117 +2634,117 @@
   <sheetData>
     <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="38">
         <v>0.6</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="44">
         <v>0.8</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="39">
         <v>0.96</v>
       </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6" s="44">
+      <c r="D6" s="33">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34">
         <v>1.04</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="40">
         <v>0.6</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="43">
         <v>0.8</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="39">
         <v>0.5</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="42">
         <v>0.75</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="39">
         <v>0.46</v>
       </c>
-      <c r="D9" s="43">
-        <v>1</v>
-      </c>
-      <c r="E9" s="36">
+      <c r="D9" s="33">
+        <v>1</v>
+      </c>
+      <c r="E9" s="31">
         <v>1.54</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="39">
         <v>0.5</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="42">
         <v>0.75</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="41">
         <v>0.6</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="35">
         <v>0.8</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="47"/>
+      <c r="G17" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2840,221 +2772,221 @@
   <sheetData>
     <row r="3" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="7"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="21">
         <v>30</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="21">
         <v>1.2033511875</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="21">
         <v>24.930378023996418</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="22">
         <v>30000</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="21">
         <v>144</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="21">
         <v>1.1329619753086422</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="21">
         <v>127.10047039378478</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="22">
         <v>144000</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="21">
         <v>108</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="21">
         <v>1.1380050000000002</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="21">
         <v>94.902922219146646</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="22">
         <v>108000</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="21">
         <v>240</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="21">
         <v>1.3276725</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="21">
         <v>180.76747089361268</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="22">
         <v>240000</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="21">
         <v>84</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="21">
         <v>1.0862775000000002</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="21">
         <v>77.328306993378746</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="22">
         <v>84000</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="21">
         <v>264</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="21">
         <v>1.2673237500000001</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="21">
         <v>208.31299026787747</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="22">
         <v>264000</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="21">
         <v>252</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="21">
         <v>1.2528592592592596</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="21">
         <v>201.13991107747606</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="22">
         <v>252000</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="21">
         <v>96</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="21">
         <v>1.2137074074074077</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="21">
         <v>79.096493449821622</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="22">
         <v>96000</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="21">
         <v>78</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="21">
         <v>1.2673237500000001</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="21">
         <v>61.547019851872889</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="22">
         <v>78000</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="21">
         <v>360</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="21">
         <v>1.5663913086419756</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="21">
         <v>229.82762864798548</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="22">
         <v>360000</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="21">
         <v>288</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="21">
         <v>1.2829278814814817</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="21">
         <v>224.48650789896882</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="22">
         <v>288000</v>
       </c>
     </row>
     <row r="16" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="23">
         <v>86</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="23">
         <v>1.2673237499999999</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="23">
         <v>67.859534708475252</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="24">
         <v>86000</v>
       </c>
     </row>

--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leizhang/Desktop/thesis_xixi/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A3B7F-DF07-7C4D-8DC4-AE2E623A1526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="520" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kpi_tech" sheetId="2" r:id="rId1"/>
@@ -17,8 +18,9 @@
     <sheet name="lf_tech" sheetId="3" r:id="rId3"/>
     <sheet name="lf_level" sheetId="5" r:id="rId4"/>
     <sheet name="constraints" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,172 +33,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>cycle time</t>
   </si>
   <si>
+    <t>working time</t>
+  </si>
+  <si>
+    <t>changeover time</t>
+  </si>
+  <si>
+    <t>uptime</t>
+  </si>
+  <si>
+    <t>total count</t>
+  </si>
+  <si>
+    <t>number of defect parts</t>
+  </si>
+  <si>
+    <t>number of good parts</t>
+  </si>
+  <si>
+    <t>WIP</t>
+  </si>
+  <si>
+    <t>number of employees</t>
+  </si>
+  <si>
+    <t>inventory management fixed cost</t>
+  </si>
+  <si>
+    <t>inventory management variable cost</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>time for data collection</t>
+  </si>
+  <si>
+    <t>Pick by Light</t>
+  </si>
+  <si>
+    <t>Individual Working Instructions</t>
+  </si>
+  <si>
+    <t>QR code</t>
+  </si>
+  <si>
+    <t>Intelligent screwdriver</t>
+  </si>
+  <si>
+    <t>NEXO (Cordless Wi-Fi Nutrunner)</t>
+  </si>
+  <si>
+    <t>AGV</t>
+  </si>
+  <si>
+    <t>Automatic torque adjustment</t>
+  </si>
+  <si>
+    <t>iBox</t>
+  </si>
+  <si>
+    <t>Workpiece carrier with RFID tags</t>
+  </si>
+  <si>
+    <t>Digital Shopfloor Management</t>
+  </si>
+  <si>
+    <t>MES to control Assembly line</t>
+  </si>
+  <si>
+    <t>Smart Glove</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>Labor costs</t>
+  </si>
+  <si>
+    <t>Cost of capital</t>
+  </si>
+  <si>
+    <t>Availability of skilled workers</t>
+  </si>
+  <si>
+    <t>Staff turnover</t>
+  </si>
+  <si>
+    <t>Transport Costs</t>
+  </si>
+  <si>
+    <t>Material Costs</t>
+  </si>
+  <si>
+    <t>Labor productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time </t>
+  </si>
+  <si>
+    <t>Correct factor</t>
+  </si>
+  <si>
+    <t>Corrected Time</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>level1</t>
+  </si>
+  <si>
+    <t>level2</t>
+  </si>
+  <si>
+    <t>level3</t>
+  </si>
+  <si>
     <t>planed production time</t>
-  </si>
-  <si>
-    <t>working time</t>
-  </si>
-  <si>
-    <t>changeover time</t>
-  </si>
-  <si>
-    <t>uptime</t>
-  </si>
-  <si>
-    <t>total count</t>
-  </si>
-  <si>
-    <t>number of defect parts</t>
-  </si>
-  <si>
-    <t>number of good parts</t>
-  </si>
-  <si>
-    <t>WIP</t>
-  </si>
-  <si>
-    <t>number of employees</t>
-  </si>
-  <si>
-    <t>inventory management fixed cost</t>
-  </si>
-  <si>
-    <t>inventory management variable cost</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>time for data collection</t>
-  </si>
-  <si>
-    <t>Pick by Light</t>
-  </si>
-  <si>
-    <t>Individual Working Instructions</t>
-  </si>
-  <si>
-    <t>QR code</t>
-  </si>
-  <si>
-    <t>Intelligent screwdriver</t>
-  </si>
-  <si>
-    <t>NEXO (Cordless Wi-Fi Nutrunner)</t>
-  </si>
-  <si>
-    <t>AGV</t>
-  </si>
-  <si>
-    <t>Automatic torque adjustment</t>
-  </si>
-  <si>
-    <t>iBox</t>
-  </si>
-  <si>
-    <t>Workpiece carrier with RFID tags</t>
-  </si>
-  <si>
-    <t>Digital Shopfloor Management</t>
-  </si>
-  <si>
-    <t>MES to control Assembly line</t>
-  </si>
-  <si>
-    <t>Smart Glove</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T9</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>Labor costs</t>
-  </si>
-  <si>
-    <t>Cost of capital</t>
-  </si>
-  <si>
-    <t>Availability of skilled workers</t>
-  </si>
-  <si>
-    <t>Staff turnover</t>
-  </si>
-  <si>
-    <t>Transport Costs</t>
-  </si>
-  <si>
-    <t>Material Costs</t>
-  </si>
-  <si>
-    <t>Labor productivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time </t>
-  </si>
-  <si>
-    <t>Correct factor</t>
-  </si>
-  <si>
-    <t>Corrected Time</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>level1</t>
-  </si>
-  <si>
-    <t>level2</t>
-  </si>
-  <si>
-    <t>level3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>correction effct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value = 1, No correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value &gt; 1, Positive correlation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">value &lt; 1, Negative correlation </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Techs/Process data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,8 +278,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +335,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -607,13 +702,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -640,14 +744,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -663,18 +761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,9 +771,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -700,18 +783,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,10 +801,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -757,6 +920,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1024,641 +1190,657 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.83203125" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="21" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7">
+        <v>13</v>
+      </c>
+      <c r="C4" s="59">
         <v>0.9821428571428571</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="59">
         <v>0.97340425531914898</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="59">
         <v>-2.6595744680851019E-2</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="F4" s="59">
+        <v>0</v>
+      </c>
+      <c r="G4" s="59">
         <v>-2.6595744680851019E-2</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="59">
+        <v>0</v>
+      </c>
+      <c r="I4" s="59">
         <v>-0.33333333333333337</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="59">
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
+      <c r="K4" s="63">
+        <v>0</v>
+      </c>
+      <c r="L4" s="60">
+        <v>0</v>
+      </c>
+      <c r="M4" s="60">
+        <v>0</v>
+      </c>
+      <c r="N4" s="60">
+        <v>0</v>
+      </c>
+      <c r="O4" s="60">
+        <v>0</v>
+      </c>
+      <c r="P4" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="49">
+        <v>14</v>
+      </c>
+      <c r="C5" s="59">
         <v>0.91803278688524592</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="59">
         <v>0.89074803149606296</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="59">
         <v>-0.10925196850393704</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="59">
         <v>-0.4</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="59">
         <v>-0.10853478046373954</v>
       </c>
-      <c r="H5" s="49">
-        <v>0</v>
-      </c>
-      <c r="I5" s="49">
-        <v>0</v>
-      </c>
-      <c r="J5" s="49">
-        <v>0</v>
-      </c>
-      <c r="K5" s="49">
+      <c r="H5" s="59">
+        <v>0</v>
+      </c>
+      <c r="I5" s="59">
+        <v>0</v>
+      </c>
+      <c r="J5" s="59">
+        <v>0</v>
+      </c>
+      <c r="K5" s="63">
         <v>-0.19999999999999996</v>
       </c>
-      <c r="L5" s="49">
-        <v>0</v>
-      </c>
-      <c r="M5" s="49">
-        <v>0</v>
-      </c>
-      <c r="N5" s="49">
-        <v>0</v>
-      </c>
-      <c r="O5" s="49">
-        <v>0</v>
-      </c>
-      <c r="P5" s="50">
+      <c r="L5" s="59">
+        <v>0</v>
+      </c>
+      <c r="M5" s="59">
+        <v>0</v>
+      </c>
+      <c r="N5" s="59">
+        <v>0</v>
+      </c>
+      <c r="O5" s="59">
+        <v>0</v>
+      </c>
+      <c r="P5" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="49">
+        <v>15</v>
+      </c>
+      <c r="C6" s="59">
         <v>0.92561983471074383</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="59">
         <v>0.91321897073662972</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="59">
         <v>-8.678102926337028E-2</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="59">
         <v>-0.5</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="59">
         <v>-8.5526315789473673E-2</v>
       </c>
-      <c r="H6" s="49">
-        <v>0</v>
-      </c>
-      <c r="I6" s="49">
-        <v>0</v>
-      </c>
-      <c r="J6" s="49">
-        <v>0</v>
-      </c>
-      <c r="K6" s="49">
-        <v>0</v>
-      </c>
-      <c r="L6" s="49">
-        <v>0</v>
-      </c>
-      <c r="M6" s="49">
-        <v>0</v>
-      </c>
-      <c r="N6" s="49">
-        <v>0</v>
-      </c>
-      <c r="O6" s="49">
-        <v>0</v>
-      </c>
-      <c r="P6" s="50">
+      <c r="H6" s="59">
+        <v>0</v>
+      </c>
+      <c r="I6" s="59">
+        <v>0</v>
+      </c>
+      <c r="J6" s="59">
+        <v>0</v>
+      </c>
+      <c r="K6" s="63">
+        <v>0</v>
+      </c>
+      <c r="L6" s="59">
+        <v>0</v>
+      </c>
+      <c r="M6" s="59">
+        <v>0</v>
+      </c>
+      <c r="N6" s="59">
+        <v>0</v>
+      </c>
+      <c r="O6" s="59">
+        <v>0</v>
+      </c>
+      <c r="P6" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="49">
-        <v>1</v>
-      </c>
-      <c r="D7" s="49">
-        <v>1</v>
-      </c>
-      <c r="E7" s="49">
-        <v>0</v>
-      </c>
-      <c r="F7" s="49">
-        <v>0</v>
-      </c>
-      <c r="G7" s="49">
-        <v>0</v>
-      </c>
-      <c r="H7" s="49">
-        <v>0</v>
-      </c>
-      <c r="I7" s="49">
+        <v>16</v>
+      </c>
+      <c r="C7" s="59">
+        <v>1</v>
+      </c>
+      <c r="D7" s="59">
+        <v>1</v>
+      </c>
+      <c r="E7" s="59">
+        <v>0</v>
+      </c>
+      <c r="F7" s="59">
+        <v>0</v>
+      </c>
+      <c r="G7" s="59">
+        <v>0</v>
+      </c>
+      <c r="H7" s="59">
+        <v>0</v>
+      </c>
+      <c r="I7" s="59">
         <v>-0.33333333333333337</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="59">
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="K7" s="49">
-        <v>0</v>
-      </c>
-      <c r="L7" s="49">
-        <v>0</v>
-      </c>
-      <c r="M7" s="49">
-        <v>0</v>
-      </c>
-      <c r="N7" s="49">
-        <v>0</v>
-      </c>
-      <c r="O7" s="49">
-        <v>0</v>
-      </c>
-      <c r="P7" s="50">
+      <c r="K7" s="63">
+        <v>0</v>
+      </c>
+      <c r="L7" s="59">
+        <v>0</v>
+      </c>
+      <c r="M7" s="59">
+        <v>0</v>
+      </c>
+      <c r="N7" s="59">
+        <v>0</v>
+      </c>
+      <c r="O7" s="59">
+        <v>0</v>
+      </c>
+      <c r="P7" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="49">
+        <v>17</v>
+      </c>
+      <c r="C8" s="59">
         <v>0.9145299145299145</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="59">
         <v>0.87064676616915426</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="59">
         <v>-0.12935323383084574</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="59">
         <v>-0.33333333333333337</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="59">
         <v>-0.12843578210894557</v>
       </c>
-      <c r="H8" s="49">
-        <v>0</v>
-      </c>
-      <c r="I8" s="49">
+      <c r="H8" s="59">
+        <v>0</v>
+      </c>
+      <c r="I8" s="59">
         <v>-0.1</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="59">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="K8" s="49">
-        <v>0</v>
-      </c>
-      <c r="L8" s="49">
-        <v>0</v>
-      </c>
-      <c r="M8" s="49">
-        <v>0</v>
-      </c>
-      <c r="N8" s="49">
-        <v>0</v>
-      </c>
-      <c r="O8" s="49">
-        <v>0</v>
-      </c>
-      <c r="P8" s="50">
+      <c r="K8" s="63">
+        <v>0</v>
+      </c>
+      <c r="L8" s="59">
+        <v>0</v>
+      </c>
+      <c r="M8" s="59">
+        <v>0</v>
+      </c>
+      <c r="N8" s="59">
+        <v>0</v>
+      </c>
+      <c r="O8" s="59">
+        <v>0</v>
+      </c>
+      <c r="P8" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="49">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49">
-        <v>1</v>
-      </c>
-      <c r="E9" s="49">
-        <v>0</v>
-      </c>
-      <c r="F9" s="49">
-        <v>0</v>
-      </c>
-      <c r="G9" s="49">
-        <v>0</v>
-      </c>
-      <c r="H9" s="49">
-        <v>0</v>
-      </c>
-      <c r="I9" s="49">
-        <v>0</v>
-      </c>
-      <c r="J9" s="49">
-        <v>0</v>
-      </c>
-      <c r="K9" s="49">
-        <v>0</v>
-      </c>
-      <c r="L9" s="49">
+        <v>18</v>
+      </c>
+      <c r="C9" s="59">
+        <v>1</v>
+      </c>
+      <c r="D9" s="59">
+        <v>1</v>
+      </c>
+      <c r="E9" s="59">
+        <v>0</v>
+      </c>
+      <c r="F9" s="59">
+        <v>0</v>
+      </c>
+      <c r="G9" s="59">
+        <v>0</v>
+      </c>
+      <c r="H9" s="59">
+        <v>0</v>
+      </c>
+      <c r="I9" s="59">
+        <v>0</v>
+      </c>
+      <c r="J9" s="59">
+        <v>0</v>
+      </c>
+      <c r="K9" s="63">
+        <v>0</v>
+      </c>
+      <c r="L9" s="59">
         <v>-1</v>
       </c>
-      <c r="M9" s="49">
-        <v>0</v>
-      </c>
-      <c r="N9" s="49">
+      <c r="M9" s="59">
+        <v>0</v>
+      </c>
+      <c r="N9" s="59">
         <v>-1</v>
       </c>
-      <c r="O9" s="49">
-        <v>0</v>
-      </c>
-      <c r="P9" s="50">
+      <c r="O9" s="59">
+        <v>0</v>
+      </c>
+      <c r="P9" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="49">
+        <v>19</v>
+      </c>
+      <c r="C10" s="59">
         <v>0.95726495726495731</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="59">
         <v>0.94467640918580376</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="59">
         <v>-5.5323590814196244E-2</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="59">
         <v>-0.5</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="59">
         <v>-5.392670157068058E-2</v>
       </c>
-      <c r="H10" s="49">
-        <v>0</v>
-      </c>
-      <c r="I10" s="49">
-        <v>0</v>
-      </c>
-      <c r="J10" s="49">
-        <v>0</v>
-      </c>
-      <c r="K10" s="49">
-        <v>0</v>
-      </c>
-      <c r="L10" s="49">
-        <v>0</v>
-      </c>
-      <c r="M10" s="49">
-        <v>0</v>
-      </c>
-      <c r="N10" s="49">
-        <v>0</v>
-      </c>
-      <c r="O10" s="49">
-        <v>0</v>
-      </c>
-      <c r="P10" s="50">
+      <c r="H10" s="59">
+        <v>0</v>
+      </c>
+      <c r="I10" s="59">
+        <v>0</v>
+      </c>
+      <c r="J10" s="59">
+        <v>0</v>
+      </c>
+      <c r="K10" s="63">
+        <v>0</v>
+      </c>
+      <c r="L10" s="59">
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
+        <v>0</v>
+      </c>
+      <c r="N10" s="59">
+        <v>0</v>
+      </c>
+      <c r="O10" s="59">
+        <v>0</v>
+      </c>
+      <c r="P10" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="49">
-        <v>1</v>
-      </c>
-      <c r="D11" s="49">
-        <v>1</v>
-      </c>
-      <c r="E11" s="49">
-        <v>0</v>
-      </c>
-      <c r="F11" s="49">
-        <v>0</v>
-      </c>
-      <c r="G11" s="49">
-        <v>0</v>
-      </c>
-      <c r="H11" s="49">
-        <v>0</v>
-      </c>
-      <c r="I11" s="49">
-        <v>0</v>
-      </c>
-      <c r="J11" s="49">
-        <v>0</v>
-      </c>
-      <c r="K11" s="49">
-        <v>0</v>
-      </c>
-      <c r="L11" s="49">
+        <v>20</v>
+      </c>
+      <c r="C11" s="59">
+        <v>1</v>
+      </c>
+      <c r="D11" s="59">
+        <v>1</v>
+      </c>
+      <c r="E11" s="59">
+        <v>0</v>
+      </c>
+      <c r="F11" s="59">
+        <v>0</v>
+      </c>
+      <c r="G11" s="59">
+        <v>0</v>
+      </c>
+      <c r="H11" s="59">
+        <v>0</v>
+      </c>
+      <c r="I11" s="59">
+        <v>0</v>
+      </c>
+      <c r="J11" s="59">
+        <v>0</v>
+      </c>
+      <c r="K11" s="63">
+        <v>0</v>
+      </c>
+      <c r="L11" s="59">
         <v>-0.66666666666666674</v>
       </c>
-      <c r="M11" s="49">
-        <v>0</v>
-      </c>
-      <c r="N11" s="49">
-        <v>0</v>
-      </c>
-      <c r="O11" s="49">
+      <c r="M11" s="59">
+        <v>0</v>
+      </c>
+      <c r="N11" s="59">
+        <v>0</v>
+      </c>
+      <c r="O11" s="59">
         <v>-0.22727272727272729</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="49">
+        <v>21</v>
+      </c>
+      <c r="C12" s="59">
         <v>0.94117647058823528</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="59">
         <v>0.92346938775510201</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="59">
         <v>-7.6530612244897989E-2</v>
       </c>
-      <c r="F12" s="49">
-        <v>0</v>
-      </c>
-      <c r="G12" s="49">
+      <c r="F12" s="59">
+        <v>0</v>
+      </c>
+      <c r="G12" s="59">
         <v>-7.6647930505876372E-2</v>
       </c>
-      <c r="H12" s="49">
-        <v>0</v>
-      </c>
-      <c r="I12" s="49">
-        <v>0</v>
-      </c>
-      <c r="J12" s="49">
-        <v>0</v>
-      </c>
-      <c r="K12" s="49">
-        <v>0</v>
-      </c>
-      <c r="L12" s="49">
-        <v>0</v>
-      </c>
-      <c r="M12" s="49">
-        <v>0</v>
-      </c>
-      <c r="N12" s="49">
-        <v>0</v>
-      </c>
-      <c r="O12" s="49">
-        <v>0</v>
-      </c>
-      <c r="P12" s="50">
+      <c r="H12" s="59">
+        <v>0</v>
+      </c>
+      <c r="I12" s="59">
+        <v>0</v>
+      </c>
+      <c r="J12" s="59">
+        <v>0</v>
+      </c>
+      <c r="K12" s="63">
+        <v>0</v>
+      </c>
+      <c r="L12" s="59">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59">
+        <v>0</v>
+      </c>
+      <c r="N12" s="59">
+        <v>0</v>
+      </c>
+      <c r="O12" s="59">
+        <v>0</v>
+      </c>
+      <c r="P12" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="49">
-        <v>1</v>
-      </c>
-      <c r="D13" s="49">
-        <v>1</v>
-      </c>
-      <c r="E13" s="49">
-        <v>0</v>
-      </c>
-      <c r="F13" s="49">
-        <v>0</v>
-      </c>
-      <c r="G13" s="49">
-        <v>0</v>
-      </c>
-      <c r="H13" s="49">
-        <v>0</v>
-      </c>
-      <c r="I13" s="49">
-        <v>0</v>
-      </c>
-      <c r="J13" s="49">
-        <v>0</v>
-      </c>
-      <c r="K13" s="49">
-        <v>0</v>
-      </c>
-      <c r="L13" s="49">
-        <v>0</v>
-      </c>
-      <c r="M13" s="49">
-        <v>0</v>
-      </c>
-      <c r="N13" s="49">
-        <v>0</v>
-      </c>
-      <c r="O13" s="49">
-        <v>0</v>
-      </c>
-      <c r="P13" s="50">
+        <v>22</v>
+      </c>
+      <c r="C13" s="59">
+        <v>1</v>
+      </c>
+      <c r="D13" s="59">
+        <v>1</v>
+      </c>
+      <c r="E13" s="59">
+        <v>0</v>
+      </c>
+      <c r="F13" s="59">
+        <v>0</v>
+      </c>
+      <c r="G13" s="59">
+        <v>0</v>
+      </c>
+      <c r="H13" s="59">
+        <v>0</v>
+      </c>
+      <c r="I13" s="59">
+        <v>0</v>
+      </c>
+      <c r="J13" s="59">
+        <v>0</v>
+      </c>
+      <c r="K13" s="63">
+        <v>0</v>
+      </c>
+      <c r="L13" s="59">
+        <v>0</v>
+      </c>
+      <c r="M13" s="59">
+        <v>0</v>
+      </c>
+      <c r="N13" s="59">
+        <v>0</v>
+      </c>
+      <c r="O13" s="59">
+        <v>0</v>
+      </c>
+      <c r="P13" s="63">
         <v>-0.66666666666666674</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="49">
+        <v>23</v>
+      </c>
+      <c r="C14" s="59">
         <v>0.95726495726495731</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="59">
         <v>0.93782383419689119</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="59">
         <v>-6.2176165803108807E-2</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="59">
         <v>-0.625</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="59">
         <v>-5.9833506763787736E-2</v>
       </c>
-      <c r="H14" s="49">
-        <v>0</v>
-      </c>
-      <c r="I14" s="49">
-        <v>0</v>
-      </c>
-      <c r="J14" s="49">
-        <v>0</v>
-      </c>
-      <c r="K14" s="49">
+      <c r="H14" s="59">
+        <v>0</v>
+      </c>
+      <c r="I14" s="59">
+        <v>0</v>
+      </c>
+      <c r="J14" s="59">
+        <v>0</v>
+      </c>
+      <c r="K14" s="63">
         <v>-0.19999999999999996</v>
       </c>
-      <c r="L14" s="49">
-        <v>0</v>
-      </c>
-      <c r="M14" s="49">
-        <v>0</v>
-      </c>
-      <c r="N14" s="49">
-        <v>0</v>
-      </c>
-      <c r="O14" s="49">
-        <v>0</v>
-      </c>
-      <c r="P14" s="50">
+      <c r="L14" s="59">
+        <v>0</v>
+      </c>
+      <c r="M14" s="59">
+        <v>0</v>
+      </c>
+      <c r="N14" s="59">
+        <v>0</v>
+      </c>
+      <c r="O14" s="59">
+        <v>0</v>
+      </c>
+      <c r="P14" s="63">
         <v>-0.66666666666666674</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="51">
-        <v>1</v>
-      </c>
-      <c r="D15" s="51">
-        <v>1</v>
-      </c>
-      <c r="E15" s="51">
-        <v>0</v>
-      </c>
-      <c r="F15" s="51">
-        <v>0</v>
-      </c>
-      <c r="G15" s="51">
-        <v>0</v>
-      </c>
-      <c r="H15" s="51">
-        <v>0</v>
-      </c>
-      <c r="I15" s="51">
-        <v>0</v>
-      </c>
-      <c r="J15" s="51">
-        <v>0</v>
-      </c>
-      <c r="K15" s="51">
-        <v>0</v>
-      </c>
-      <c r="L15" s="51">
-        <v>0</v>
-      </c>
-      <c r="M15" s="51">
-        <v>0</v>
-      </c>
-      <c r="N15" s="51">
-        <v>0</v>
-      </c>
-      <c r="O15" s="51">
-        <v>0</v>
-      </c>
-      <c r="P15" s="52">
+        <v>24</v>
+      </c>
+      <c r="C15" s="61">
+        <v>1</v>
+      </c>
+      <c r="D15" s="61">
+        <v>1</v>
+      </c>
+      <c r="E15" s="61">
+        <v>0</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="61">
+        <v>0</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0</v>
+      </c>
+      <c r="I15" s="61">
+        <v>0</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0</v>
+      </c>
+      <c r="K15" s="64">
+        <v>0</v>
+      </c>
+      <c r="L15" s="61">
+        <v>0</v>
+      </c>
+      <c r="M15" s="61">
+        <v>0</v>
+      </c>
+      <c r="N15" s="61">
+        <v>0</v>
+      </c>
+      <c r="O15" s="61">
+        <v>0</v>
+      </c>
+      <c r="P15" s="64">
         <v>-0.58830409356725144</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1670,45 +1852,45 @@
     <row r="3" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -1749,7 +1931,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7">
         <v>1.125</v>
@@ -1790,7 +1972,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7">
         <v>1.1666666666666667</v>
@@ -1831,7 +2013,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1872,7 +2054,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1913,7 +2095,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1954,7 +2136,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1995,7 +2177,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2036,7 +2218,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>1.1666666666666667</v>
@@ -2077,7 +2259,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
         <v>1.3333333333333333</v>
@@ -2118,7 +2300,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>1.5833333333333335</v>
@@ -2159,7 +2341,7 @@
     </row>
     <row r="15" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -2205,406 +2387,563 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="15" t="s">
+    </row>
+    <row r="4" spans="2:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="48">
+        <v>1</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" ht="60" x14ac:dyDescent="0.2">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="47">
+        <v>1.05</v>
+      </c>
+      <c r="E5" s="47">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="F5" s="47">
+        <v>1</v>
+      </c>
+      <c r="G5" s="47">
+        <v>1</v>
+      </c>
+      <c r="H5" s="47">
+        <v>1</v>
+      </c>
+      <c r="I5" s="47">
+        <v>1.05</v>
+      </c>
+      <c r="J5" s="47">
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="K5" s="47">
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="L5" s="47">
+        <v>1</v>
+      </c>
+      <c r="M5" s="47">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="N5" s="47">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="O5" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="48">
+        <v>2</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D6" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="I6" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="J6" s="47">
+        <v>1</v>
+      </c>
+      <c r="K6" s="47">
+        <v>1</v>
+      </c>
+      <c r="L6" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="M6" s="47">
+        <v>1</v>
+      </c>
+      <c r="N6" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="O6" s="47">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="48">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7" s="47">
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="F7" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I7" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7" s="47">
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="K7" s="47">
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="L7" s="47">
         <v>1.05</v>
       </c>
-      <c r="E5" s="19">
+      <c r="M7" s="47">
         <v>1.0666666666666667</v>
       </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="N7" s="47">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="O7" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="48">
+        <v>4</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="47">
         <v>1.05</v>
       </c>
-      <c r="J5" s="19">
+      <c r="E8" s="47">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="F8" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="G8" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8" s="47">
+        <v>0.95</v>
+      </c>
+      <c r="I8" s="47">
+        <v>1</v>
+      </c>
+      <c r="J8" s="47">
+        <v>1</v>
+      </c>
+      <c r="K8" s="47">
+        <v>1</v>
+      </c>
+      <c r="L8" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M8" s="47">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="N8" s="47">
         <v>1.0333333333333334</v>
       </c>
-      <c r="K5" s="19">
+      <c r="O8" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="48">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="47">
+        <v>1</v>
+      </c>
+      <c r="E9" s="47">
+        <v>1</v>
+      </c>
+      <c r="F9" s="47">
+        <v>1</v>
+      </c>
+      <c r="G9" s="47">
+        <v>1</v>
+      </c>
+      <c r="H9" s="47">
+        <v>1</v>
+      </c>
+      <c r="I9" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J9" s="47">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="K9" s="47">
         <v>1.0333333333333334</v>
       </c>
-      <c r="L5" s="19">
-        <v>1</v>
-      </c>
-      <c r="M5" s="19">
+      <c r="L9" s="47">
+        <v>1</v>
+      </c>
+      <c r="M9" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N9" s="47">
+        <v>1.0333333333333334</v>
+      </c>
+      <c r="O9" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="48">
+        <v>6</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="47">
+        <v>1.05</v>
+      </c>
+      <c r="E10" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F10" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G10" s="47">
+        <v>1.05</v>
+      </c>
+      <c r="H10" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I10" s="47">
+        <v>1.05</v>
+      </c>
+      <c r="J10" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K10" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L10" s="47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M10" s="47">
         <v>1.0666666666666667</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N10" s="47">
         <v>1.0666666666666667</v>
       </c>
-      <c r="O5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B6" s="17">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="I6" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="J6" s="19">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19">
-        <v>1</v>
-      </c>
-      <c r="L6" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="M6" s="19">
-        <v>1</v>
-      </c>
-      <c r="N6" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="O6" s="19">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="B7" s="17">
-        <v>3</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="O10" s="47">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="48">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="47">
+        <v>1.05</v>
+      </c>
+      <c r="E11" s="47">
+        <v>1</v>
+      </c>
+      <c r="F11" s="47">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="19">
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="G11" s="47">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G7" s="19">
+      <c r="H11" s="47">
+        <v>1.05</v>
+      </c>
+      <c r="I11" s="47">
+        <v>1</v>
+      </c>
+      <c r="J11" s="47">
+        <v>1</v>
+      </c>
+      <c r="K11" s="47">
+        <v>1</v>
+      </c>
+      <c r="L11" s="47">
+        <v>1.05</v>
+      </c>
+      <c r="M11" s="47">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H7" s="19">
+      <c r="N11" s="47">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="L7" s="19">
+      <c r="O11" s="47">
         <v>1.05</v>
       </c>
-      <c r="M7" s="19">
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="N7" s="19">
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="O7" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B8" s="17">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0.95</v>
-      </c>
-      <c r="I8" s="19">
-        <v>1</v>
-      </c>
-      <c r="J8" s="19">
-        <v>1</v>
-      </c>
-      <c r="K8" s="19">
-        <v>1</v>
-      </c>
-      <c r="L8" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M8" s="19">
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="N8" s="19">
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="O8" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B9" s="17">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="L9" s="19">
-        <v>1</v>
-      </c>
-      <c r="M9" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N9" s="19">
-        <v>1.0333333333333334</v>
-      </c>
-      <c r="O9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B10" s="17">
-        <v>6</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F10" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G10" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="H10" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I10" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="J10" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K10" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L10" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M10" s="19">
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="N10" s="19">
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="O10" s="19">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="17">
-        <v>7</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-      <c r="L11" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="M11" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N11" s="19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O11" s="19">
-        <v>1.05</v>
-      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="51">
+        <f>D5*D6*D7*D8*D9*D10*D11</f>
+        <v>1.2033511875000003</v>
+      </c>
+      <c r="E12" s="51">
+        <f t="shared" ref="E12:O12" si="0">E5*E6*E7*E8*E9*E10*E11</f>
+        <v>1.1329619753086422</v>
+      </c>
+      <c r="F12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.1380050000000002</v>
+      </c>
+      <c r="G12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.3276725</v>
+      </c>
+      <c r="H12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.0862775000000002</v>
+      </c>
+      <c r="I12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2673237500000001</v>
+      </c>
+      <c r="J12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2528592592592596</v>
+      </c>
+      <c r="K12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2137074074074077</v>
+      </c>
+      <c r="L12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2673237500000001</v>
+      </c>
+      <c r="M12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.5663913086419756</v>
+      </c>
+      <c r="N12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2829278814814817</v>
+      </c>
+      <c r="O12" s="51">
+        <f t="shared" si="0"/>
+        <v>1.2673237499999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="B13" s="49"/>
+      <c r="C13" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="53">
+        <v>1.2033511875000003</v>
+      </c>
+      <c r="E13" s="53">
+        <v>1.1329619753086422</v>
+      </c>
+      <c r="F13" s="53">
+        <v>1.1380050000000002</v>
+      </c>
+      <c r="G13" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="53">
+        <v>1.0862775000000002</v>
+      </c>
+      <c r="I13" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="J13" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="K13" s="53">
+        <v>1.2137074074074077</v>
+      </c>
+      <c r="L13" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="M13" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="N13" s="53">
+        <v>1.25</v>
+      </c>
+      <c r="O13" s="53">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
+    <mergeCell ref="E14:O16"/>
     <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D5:O11">
@@ -2620,11 +2959,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E11" sqref="B4:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2634,117 +2973,117 @@
   <sheetData>
     <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C6" s="30">
+        <v>0.96</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="37">
         <v>0.6</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D7" s="38">
         <v>0.8</v>
       </c>
-      <c r="E5" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="39">
-        <v>0.96</v>
-      </c>
-      <c r="D6" s="33">
-        <v>1</v>
-      </c>
-      <c r="E6" s="34">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C8" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.46</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="39">
         <v>0.6</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D11" s="40">
         <v>0.8</v>
       </c>
-      <c r="E7" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="39">
-        <v>0.46</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="31">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="D10" s="42">
-        <v>0.75</v>
-      </c>
-      <c r="E10" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="41">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="35">
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="E11" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="37"/>
+      <c r="G17" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2754,7 +3093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C3:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2774,220 +3113,454 @@
     <row r="4" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="21">
+        <v>13</v>
+      </c>
+      <c r="D5" s="19">
         <v>30</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>1.2033511875</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>24.930378023996418</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <v>30000</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="21">
+        <v>14</v>
+      </c>
+      <c r="D6" s="19">
         <v>144</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>1.1329619753086422</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>127.10047039378478</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>144000</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="21">
+        <v>15</v>
+      </c>
+      <c r="D7" s="19">
         <v>108</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>1.1380050000000002</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>94.902922219146646</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>108000</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="21">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19">
         <v>240</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>1.3276725</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>180.76747089361268</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>240000</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="21">
+        <v>17</v>
+      </c>
+      <c r="D9" s="19">
         <v>84</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>1.0862775000000002</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>77.328306993378746</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>84000</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="21">
+        <v>18</v>
+      </c>
+      <c r="D10" s="19">
         <v>264</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>1.2673237500000001</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>208.31299026787747</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>264000</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="21">
+        <v>19</v>
+      </c>
+      <c r="D11" s="19">
         <v>252</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>1.2528592592592596</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <v>201.13991107747606</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="20">
         <v>252000</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="21">
+        <v>20</v>
+      </c>
+      <c r="D12" s="19">
         <v>96</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>1.2137074074074077</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>79.096493449821622</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="20">
         <v>96000</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="21">
+        <v>21</v>
+      </c>
+      <c r="D13" s="19">
         <v>78</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>1.2673237500000001</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>61.547019851872889</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="20">
         <v>78000</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="21">
+        <v>22</v>
+      </c>
+      <c r="D14" s="19">
         <v>360</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>1.5663913086419756</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>229.82762864798548</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="20">
         <v>360000</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="21">
+        <v>23</v>
+      </c>
+      <c r="D15" s="19">
         <v>288</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>1.2829278814814817</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>224.48650789896882</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="20">
         <v>288000</v>
       </c>
     </row>
     <row r="16" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="21">
+        <v>86</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1.2673237499999999</v>
+      </c>
+      <c r="F16" s="21">
+        <v>67.859534708475252</v>
+      </c>
+      <c r="G16" s="22">
+        <v>86000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A2BC7A-7AD4-2A49-AEF1-796B64CE81F1}">
+  <dimension ref="D6:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <f xml:space="preserve"> kpi_tech!C4 * kpi_tech!J4 / kpi_tech!D4</f>
+        <v>7.7613643187413608E-2</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> kpi_tech!C4 * kpi_tech!K4 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>kpi_tech!I4 *-250</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <f xml:space="preserve"> kpi_tech!C5 * kpi_tech!J5 / kpi_tech!D5</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f xml:space="preserve"> kpi_tech!C5 * kpi_tech!K5 *-1</f>
+        <v>0.18360655737704915</v>
+      </c>
+      <c r="G8">
+        <f>kpi_tech!I5 *-250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <f xml:space="preserve"> kpi_tech!C6 * kpi_tech!J6 / kpi_tech!D6</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f xml:space="preserve"> kpi_tech!C6 * kpi_tech!K6 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>kpi_tech!I6 *-250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <f xml:space="preserve"> kpi_tech!C7 * kpi_tech!J7 / kpi_tech!D7</f>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="F10">
+        <f xml:space="preserve"> kpi_tech!C7 * kpi_tech!K7 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>kpi_tech!I7 *-250</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <f xml:space="preserve"> kpi_tech!C8 * kpi_tech!J8 / kpi_tech!D8</f>
+        <v>7.5028780743066417E-2</v>
+      </c>
+      <c r="F11">
+        <f xml:space="preserve"> kpi_tech!C8 * kpi_tech!K8 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>kpi_tech!I8 *-250</f>
         <v>25</v>
       </c>
-      <c r="D16" s="23">
-        <v>86</v>
-      </c>
-      <c r="E16" s="23">
-        <v>1.2673237499999999</v>
-      </c>
-      <c r="F16" s="23">
-        <v>67.859534708475252</v>
-      </c>
-      <c r="G16" s="24">
-        <v>86000</v>
+    </row>
+    <row r="12" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <f xml:space="preserve"> kpi_tech!C9 * kpi_tech!J9 / kpi_tech!D9</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f xml:space="preserve"> kpi_tech!C9 * kpi_tech!K9 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>kpi_tech!I9 *-250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <f xml:space="preserve"> kpi_tech!C10 * kpi_tech!J10 / kpi_tech!D10</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f xml:space="preserve"> kpi_tech!C10 * kpi_tech!K10 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>kpi_tech!I10 *-250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f xml:space="preserve"> kpi_tech!C11 * kpi_tech!J11 / kpi_tech!D11</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f xml:space="preserve"> kpi_tech!C11 * kpi_tech!K11 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>kpi_tech!I11 *-250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <f xml:space="preserve"> kpi_tech!C12 * kpi_tech!J12 / kpi_tech!D12</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f xml:space="preserve"> kpi_tech!C12 * kpi_tech!K12 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>kpi_tech!I12 *-250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <f xml:space="preserve"> kpi_tech!C13 * kpi_tech!J13 / kpi_tech!D13</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f xml:space="preserve"> kpi_tech!C13 * kpi_tech!K13 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>kpi_tech!I13 *-250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <f xml:space="preserve"> kpi_tech!C14 * kpi_tech!J14 / kpi_tech!D14</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f xml:space="preserve"> kpi_tech!C14 * kpi_tech!K14 *-1</f>
+        <v>0.19145299145299141</v>
+      </c>
+      <c r="G17">
+        <f>kpi_tech!I14 *-250</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <f xml:space="preserve"> kpi_tech!C15 * kpi_tech!J15 / kpi_tech!D15</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f xml:space="preserve"> kpi_tech!C15 * kpi_tech!K15 *-1</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>kpi_tech!I15 *-250</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leizhang/Desktop/thesis_xixi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Desktop/Thesis_xixi/ Masterthesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A3B7F-DF07-7C4D-8DC4-AE2E623A1526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C252E4F-18E6-9D4B-A1F0-02EFCDE66F6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="520" windowWidth="28800" windowHeight="16080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16080" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kpi_tech" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="constraints" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -233,8 +233,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -764,16 +764,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -789,18 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -810,7 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -843,62 +831,74 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1193,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
@@ -1218,34 +1218,34 @@
   <sheetData>
     <row r="2" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="66" t="s">
+      <c r="E3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="58" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -1268,46 +1268,46 @@
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="50">
         <v>0.9821428571428571</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="50">
         <v>0.97340425531914898</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="50">
         <v>-2.6595744680851019E-2</v>
       </c>
-      <c r="F4" s="59">
-        <v>0</v>
-      </c>
-      <c r="G4" s="59">
+      <c r="F4" s="50">
+        <v>0</v>
+      </c>
+      <c r="G4" s="50">
         <v>-2.6595744680851019E-2</v>
       </c>
-      <c r="H4" s="59">
-        <v>0</v>
-      </c>
-      <c r="I4" s="59">
+      <c r="H4" s="50">
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
         <v>-0.33333333333333337</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="50">
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="K4" s="63">
-        <v>0</v>
-      </c>
-      <c r="L4" s="60">
-        <v>0</v>
-      </c>
-      <c r="M4" s="60">
-        <v>0</v>
-      </c>
-      <c r="N4" s="60">
-        <v>0</v>
-      </c>
-      <c r="O4" s="60">
-        <v>0</v>
-      </c>
-      <c r="P4" s="62">
+      <c r="K4" s="54">
+        <v>0</v>
+      </c>
+      <c r="L4" s="51">
+        <v>0</v>
+      </c>
+      <c r="M4" s="51">
+        <v>0</v>
+      </c>
+      <c r="N4" s="51">
+        <v>0</v>
+      </c>
+      <c r="O4" s="51">
+        <v>0</v>
+      </c>
+      <c r="P4" s="53">
         <v>0</v>
       </c>
     </row>
@@ -1315,46 +1315,46 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="50">
         <v>0.91803278688524592</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="50">
         <v>0.89074803149606296</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="50">
         <v>-0.10925196850393704</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="50">
         <v>-0.4</v>
       </c>
-      <c r="G5" s="59">
+      <c r="G5" s="50">
         <v>-0.10853478046373954</v>
       </c>
-      <c r="H5" s="59">
-        <v>0</v>
-      </c>
-      <c r="I5" s="59">
-        <v>0</v>
-      </c>
-      <c r="J5" s="59">
-        <v>0</v>
-      </c>
-      <c r="K5" s="63">
+      <c r="H5" s="50">
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
+        <v>0</v>
+      </c>
+      <c r="K5" s="54">
         <v>-0.19999999999999996</v>
       </c>
-      <c r="L5" s="59">
-        <v>0</v>
-      </c>
-      <c r="M5" s="59">
-        <v>0</v>
-      </c>
-      <c r="N5" s="59">
-        <v>0</v>
-      </c>
-      <c r="O5" s="59">
-        <v>0</v>
-      </c>
-      <c r="P5" s="63">
+      <c r="L5" s="50">
+        <v>0</v>
+      </c>
+      <c r="M5" s="50">
+        <v>0</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0</v>
+      </c>
+      <c r="O5" s="50">
+        <v>0</v>
+      </c>
+      <c r="P5" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1362,46 +1362,46 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="50">
         <v>0.92561983471074383</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="50">
         <v>0.91321897073662972</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="50">
         <v>-8.678102926337028E-2</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="50">
         <v>-0.5</v>
       </c>
-      <c r="G6" s="59">
+      <c r="G6" s="50">
         <v>-8.5526315789473673E-2</v>
       </c>
-      <c r="H6" s="59">
-        <v>0</v>
-      </c>
-      <c r="I6" s="59">
-        <v>0</v>
-      </c>
-      <c r="J6" s="59">
-        <v>0</v>
-      </c>
-      <c r="K6" s="63">
-        <v>0</v>
-      </c>
-      <c r="L6" s="59">
-        <v>0</v>
-      </c>
-      <c r="M6" s="59">
-        <v>0</v>
-      </c>
-      <c r="N6" s="59">
-        <v>0</v>
-      </c>
-      <c r="O6" s="59">
-        <v>0</v>
-      </c>
-      <c r="P6" s="63">
+      <c r="H6" s="50">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <v>0</v>
+      </c>
+      <c r="K6" s="54">
+        <v>0</v>
+      </c>
+      <c r="L6" s="50">
+        <v>0</v>
+      </c>
+      <c r="M6" s="50">
+        <v>0</v>
+      </c>
+      <c r="N6" s="50">
+        <v>0</v>
+      </c>
+      <c r="O6" s="50">
+        <v>0</v>
+      </c>
+      <c r="P6" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1409,46 +1409,46 @@
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="59">
-        <v>1</v>
-      </c>
-      <c r="D7" s="59">
-        <v>1</v>
-      </c>
-      <c r="E7" s="59">
-        <v>0</v>
-      </c>
-      <c r="F7" s="59">
-        <v>0</v>
-      </c>
-      <c r="G7" s="59">
-        <v>0</v>
-      </c>
-      <c r="H7" s="59">
-        <v>0</v>
-      </c>
-      <c r="I7" s="59">
+      <c r="C7" s="50">
+        <v>1</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1</v>
+      </c>
+      <c r="E7" s="50">
+        <v>0</v>
+      </c>
+      <c r="F7" s="50">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <v>0</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
         <v>-0.33333333333333337</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="50">
         <v>7.6923076923076872E-2</v>
       </c>
-      <c r="K7" s="63">
-        <v>0</v>
-      </c>
-      <c r="L7" s="59">
-        <v>0</v>
-      </c>
-      <c r="M7" s="59">
-        <v>0</v>
-      </c>
-      <c r="N7" s="59">
-        <v>0</v>
-      </c>
-      <c r="O7" s="59">
-        <v>0</v>
-      </c>
-      <c r="P7" s="63">
+      <c r="K7" s="54">
+        <v>0</v>
+      </c>
+      <c r="L7" s="50">
+        <v>0</v>
+      </c>
+      <c r="M7" s="50">
+        <v>0</v>
+      </c>
+      <c r="N7" s="50">
+        <v>0</v>
+      </c>
+      <c r="O7" s="50">
+        <v>0</v>
+      </c>
+      <c r="P7" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1456,46 +1456,46 @@
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="50">
         <v>0.9145299145299145</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="50">
         <v>0.87064676616915426</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="50">
         <v>-0.12935323383084574</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="50">
         <v>-0.33333333333333337</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="50">
         <v>-0.12843578210894557</v>
       </c>
-      <c r="H8" s="59">
-        <v>0</v>
-      </c>
-      <c r="I8" s="59">
+      <c r="H8" s="50">
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
         <v>-0.1</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="50">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="K8" s="63">
-        <v>0</v>
-      </c>
-      <c r="L8" s="59">
-        <v>0</v>
-      </c>
-      <c r="M8" s="59">
-        <v>0</v>
-      </c>
-      <c r="N8" s="59">
-        <v>0</v>
-      </c>
-      <c r="O8" s="59">
-        <v>0</v>
-      </c>
-      <c r="P8" s="63">
+      <c r="K8" s="54">
+        <v>0</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0</v>
+      </c>
+      <c r="M8" s="50">
+        <v>0</v>
+      </c>
+      <c r="N8" s="50">
+        <v>0</v>
+      </c>
+      <c r="O8" s="50">
+        <v>0</v>
+      </c>
+      <c r="P8" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1503,46 +1503,46 @@
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="59">
-        <v>1</v>
-      </c>
-      <c r="D9" s="59">
-        <v>1</v>
-      </c>
-      <c r="E9" s="59">
-        <v>0</v>
-      </c>
-      <c r="F9" s="59">
-        <v>0</v>
-      </c>
-      <c r="G9" s="59">
-        <v>0</v>
-      </c>
-      <c r="H9" s="59">
-        <v>0</v>
-      </c>
-      <c r="I9" s="59">
-        <v>0</v>
-      </c>
-      <c r="J9" s="59">
-        <v>0</v>
-      </c>
-      <c r="K9" s="63">
-        <v>0</v>
-      </c>
-      <c r="L9" s="59">
+      <c r="C9" s="50">
+        <v>1</v>
+      </c>
+      <c r="D9" s="50">
+        <v>1</v>
+      </c>
+      <c r="E9" s="50">
+        <v>0</v>
+      </c>
+      <c r="F9" s="50">
+        <v>0</v>
+      </c>
+      <c r="G9" s="50">
+        <v>0</v>
+      </c>
+      <c r="H9" s="50">
+        <v>0</v>
+      </c>
+      <c r="I9" s="50">
+        <v>0</v>
+      </c>
+      <c r="J9" s="50">
+        <v>0</v>
+      </c>
+      <c r="K9" s="54">
+        <v>0</v>
+      </c>
+      <c r="L9" s="50">
         <v>-1</v>
       </c>
-      <c r="M9" s="59">
-        <v>0</v>
-      </c>
-      <c r="N9" s="59">
+      <c r="M9" s="50">
+        <v>0</v>
+      </c>
+      <c r="N9" s="50">
         <v>-1</v>
       </c>
-      <c r="O9" s="59">
-        <v>0</v>
-      </c>
-      <c r="P9" s="63">
+      <c r="O9" s="50">
+        <v>0</v>
+      </c>
+      <c r="P9" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1550,46 +1550,46 @@
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="59">
+      <c r="C10" s="50">
         <v>0.95726495726495731</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="50">
         <v>0.94467640918580376</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="50">
         <v>-5.5323590814196244E-2</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="50">
         <v>-0.5</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="50">
         <v>-5.392670157068058E-2</v>
       </c>
-      <c r="H10" s="59">
-        <v>0</v>
-      </c>
-      <c r="I10" s="59">
-        <v>0</v>
-      </c>
-      <c r="J10" s="59">
-        <v>0</v>
-      </c>
-      <c r="K10" s="63">
-        <v>0</v>
-      </c>
-      <c r="L10" s="59">
-        <v>0</v>
-      </c>
-      <c r="M10" s="59">
-        <v>0</v>
-      </c>
-      <c r="N10" s="59">
-        <v>0</v>
-      </c>
-      <c r="O10" s="59">
-        <v>0</v>
-      </c>
-      <c r="P10" s="63">
+      <c r="H10" s="50">
+        <v>0</v>
+      </c>
+      <c r="I10" s="50">
+        <v>0</v>
+      </c>
+      <c r="J10" s="50">
+        <v>0</v>
+      </c>
+      <c r="K10" s="54">
+        <v>0</v>
+      </c>
+      <c r="L10" s="50">
+        <v>0</v>
+      </c>
+      <c r="M10" s="50">
+        <v>0</v>
+      </c>
+      <c r="N10" s="50">
+        <v>0</v>
+      </c>
+      <c r="O10" s="50">
+        <v>0</v>
+      </c>
+      <c r="P10" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1597,46 +1597,46 @@
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="59">
-        <v>1</v>
-      </c>
-      <c r="D11" s="59">
-        <v>1</v>
-      </c>
-      <c r="E11" s="59">
-        <v>0</v>
-      </c>
-      <c r="F11" s="59">
-        <v>0</v>
-      </c>
-      <c r="G11" s="59">
-        <v>0</v>
-      </c>
-      <c r="H11" s="59">
-        <v>0</v>
-      </c>
-      <c r="I11" s="59">
-        <v>0</v>
-      </c>
-      <c r="J11" s="59">
-        <v>0</v>
-      </c>
-      <c r="K11" s="63">
-        <v>0</v>
-      </c>
-      <c r="L11" s="59">
+      <c r="C11" s="50">
+        <v>1</v>
+      </c>
+      <c r="D11" s="50">
+        <v>1</v>
+      </c>
+      <c r="E11" s="50">
+        <v>0</v>
+      </c>
+      <c r="F11" s="50">
+        <v>0</v>
+      </c>
+      <c r="G11" s="50">
+        <v>0</v>
+      </c>
+      <c r="H11" s="50">
+        <v>0</v>
+      </c>
+      <c r="I11" s="50">
+        <v>0</v>
+      </c>
+      <c r="J11" s="50">
+        <v>0</v>
+      </c>
+      <c r="K11" s="54">
+        <v>0</v>
+      </c>
+      <c r="L11" s="50">
         <v>-0.66666666666666674</v>
       </c>
-      <c r="M11" s="59">
-        <v>0</v>
-      </c>
-      <c r="N11" s="59">
-        <v>0</v>
-      </c>
-      <c r="O11" s="59">
+      <c r="M11" s="50">
+        <v>0</v>
+      </c>
+      <c r="N11" s="50">
+        <v>0</v>
+      </c>
+      <c r="O11" s="50">
         <v>-0.22727272727272729</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1644,46 +1644,46 @@
       <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="50">
         <v>0.94117647058823528</v>
       </c>
-      <c r="D12" s="59">
+      <c r="D12" s="50">
         <v>0.92346938775510201</v>
       </c>
-      <c r="E12" s="59">
+      <c r="E12" s="50">
         <v>-7.6530612244897989E-2</v>
       </c>
-      <c r="F12" s="59">
-        <v>0</v>
-      </c>
-      <c r="G12" s="59">
+      <c r="F12" s="50">
+        <v>0</v>
+      </c>
+      <c r="G12" s="50">
         <v>-7.6647930505876372E-2</v>
       </c>
-      <c r="H12" s="59">
-        <v>0</v>
-      </c>
-      <c r="I12" s="59">
-        <v>0</v>
-      </c>
-      <c r="J12" s="59">
-        <v>0</v>
-      </c>
-      <c r="K12" s="63">
-        <v>0</v>
-      </c>
-      <c r="L12" s="59">
-        <v>0</v>
-      </c>
-      <c r="M12" s="59">
-        <v>0</v>
-      </c>
-      <c r="N12" s="59">
-        <v>0</v>
-      </c>
-      <c r="O12" s="59">
-        <v>0</v>
-      </c>
-      <c r="P12" s="63">
+      <c r="H12" s="50">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50">
+        <v>0</v>
+      </c>
+      <c r="K12" s="54">
+        <v>0</v>
+      </c>
+      <c r="L12" s="50">
+        <v>0</v>
+      </c>
+      <c r="M12" s="50">
+        <v>0</v>
+      </c>
+      <c r="N12" s="50">
+        <v>0</v>
+      </c>
+      <c r="O12" s="50">
+        <v>0</v>
+      </c>
+      <c r="P12" s="54">
         <v>0</v>
       </c>
     </row>
@@ -1691,46 +1691,46 @@
       <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="59">
-        <v>1</v>
-      </c>
-      <c r="D13" s="59">
-        <v>1</v>
-      </c>
-      <c r="E13" s="59">
-        <v>0</v>
-      </c>
-      <c r="F13" s="59">
-        <v>0</v>
-      </c>
-      <c r="G13" s="59">
-        <v>0</v>
-      </c>
-      <c r="H13" s="59">
-        <v>0</v>
-      </c>
-      <c r="I13" s="59">
-        <v>0</v>
-      </c>
-      <c r="J13" s="59">
-        <v>0</v>
-      </c>
-      <c r="K13" s="63">
-        <v>0</v>
-      </c>
-      <c r="L13" s="59">
-        <v>0</v>
-      </c>
-      <c r="M13" s="59">
-        <v>0</v>
-      </c>
-      <c r="N13" s="59">
-        <v>0</v>
-      </c>
-      <c r="O13" s="59">
-        <v>0</v>
-      </c>
-      <c r="P13" s="63">
+      <c r="C13" s="50">
+        <v>1</v>
+      </c>
+      <c r="D13" s="50">
+        <v>1</v>
+      </c>
+      <c r="E13" s="50">
+        <v>0</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0</v>
+      </c>
+      <c r="G13" s="50">
+        <v>0</v>
+      </c>
+      <c r="H13" s="50">
+        <v>0</v>
+      </c>
+      <c r="I13" s="50">
+        <v>0</v>
+      </c>
+      <c r="J13" s="50">
+        <v>0</v>
+      </c>
+      <c r="K13" s="54">
+        <v>0</v>
+      </c>
+      <c r="L13" s="50">
+        <v>0</v>
+      </c>
+      <c r="M13" s="50">
+        <v>0</v>
+      </c>
+      <c r="N13" s="50">
+        <v>0</v>
+      </c>
+      <c r="O13" s="50">
+        <v>0</v>
+      </c>
+      <c r="P13" s="54">
         <v>-0.66666666666666674</v>
       </c>
     </row>
@@ -1738,46 +1738,46 @@
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="50">
         <v>0.95726495726495731</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="50">
         <v>0.93782383419689119</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="50">
         <v>-6.2176165803108807E-2</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="50">
         <v>-0.625</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="50">
         <v>-5.9833506763787736E-2</v>
       </c>
-      <c r="H14" s="59">
-        <v>0</v>
-      </c>
-      <c r="I14" s="59">
-        <v>0</v>
-      </c>
-      <c r="J14" s="59">
-        <v>0</v>
-      </c>
-      <c r="K14" s="63">
+      <c r="H14" s="50">
+        <v>0</v>
+      </c>
+      <c r="I14" s="50">
+        <v>0</v>
+      </c>
+      <c r="J14" s="50">
+        <v>0</v>
+      </c>
+      <c r="K14" s="54">
         <v>-0.19999999999999996</v>
       </c>
-      <c r="L14" s="59">
-        <v>0</v>
-      </c>
-      <c r="M14" s="59">
-        <v>0</v>
-      </c>
-      <c r="N14" s="59">
-        <v>0</v>
-      </c>
-      <c r="O14" s="59">
-        <v>0</v>
-      </c>
-      <c r="P14" s="63">
+      <c r="L14" s="50">
+        <v>0</v>
+      </c>
+      <c r="M14" s="50">
+        <v>0</v>
+      </c>
+      <c r="N14" s="50">
+        <v>0</v>
+      </c>
+      <c r="O14" s="50">
+        <v>0</v>
+      </c>
+      <c r="P14" s="54">
         <v>-0.66666666666666674</v>
       </c>
     </row>
@@ -1785,46 +1785,46 @@
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="61">
-        <v>1</v>
-      </c>
-      <c r="D15" s="61">
-        <v>1</v>
-      </c>
-      <c r="E15" s="61">
-        <v>0</v>
-      </c>
-      <c r="F15" s="61">
-        <v>0</v>
-      </c>
-      <c r="G15" s="61">
-        <v>0</v>
-      </c>
-      <c r="H15" s="61">
-        <v>0</v>
-      </c>
-      <c r="I15" s="61">
-        <v>0</v>
-      </c>
-      <c r="J15" s="61">
-        <v>0</v>
-      </c>
-      <c r="K15" s="64">
-        <v>0</v>
-      </c>
-      <c r="L15" s="61">
-        <v>0</v>
-      </c>
-      <c r="M15" s="61">
-        <v>0</v>
-      </c>
-      <c r="N15" s="61">
-        <v>0</v>
-      </c>
-      <c r="O15" s="61">
-        <v>0</v>
-      </c>
-      <c r="P15" s="64">
+      <c r="C15" s="52">
+        <v>1</v>
+      </c>
+      <c r="D15" s="52">
+        <v>1</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0</v>
+      </c>
+      <c r="F15" s="52">
+        <v>0</v>
+      </c>
+      <c r="G15" s="52">
+        <v>0</v>
+      </c>
+      <c r="H15" s="52">
+        <v>0</v>
+      </c>
+      <c r="I15" s="52">
+        <v>0</v>
+      </c>
+      <c r="J15" s="52">
+        <v>0</v>
+      </c>
+      <c r="K15" s="55">
+        <v>0</v>
+      </c>
+      <c r="L15" s="52">
+        <v>0</v>
+      </c>
+      <c r="M15" s="52">
+        <v>0</v>
+      </c>
+      <c r="N15" s="52">
+        <v>0</v>
+      </c>
+      <c r="O15" s="52">
+        <v>0</v>
+      </c>
+      <c r="P15" s="55">
         <v>-0.58830409356725144</v>
       </c>
     </row>
@@ -2400,8 +2400,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="15" t="s">
         <v>25</v>
       </c>
@@ -2440,8 +2440,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="64" x14ac:dyDescent="0.2">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
@@ -2480,462 +2480,462 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="48">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="43">
         <v>1.05</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="43">
         <v>1.0666666666666667</v>
       </c>
-      <c r="F5" s="47">
-        <v>1</v>
-      </c>
-      <c r="G5" s="47">
-        <v>1</v>
-      </c>
-      <c r="H5" s="47">
-        <v>1</v>
-      </c>
-      <c r="I5" s="47">
+      <c r="F5" s="43">
+        <v>1</v>
+      </c>
+      <c r="G5" s="43">
+        <v>1</v>
+      </c>
+      <c r="H5" s="43">
+        <v>1</v>
+      </c>
+      <c r="I5" s="43">
         <v>1.05</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="43">
         <v>1.0333333333333334</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="43">
         <v>1.0333333333333334</v>
       </c>
-      <c r="L5" s="47">
-        <v>1</v>
-      </c>
-      <c r="M5" s="47">
+      <c r="L5" s="43">
+        <v>1</v>
+      </c>
+      <c r="M5" s="43">
         <v>1.0666666666666667</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="43">
         <v>1.0666666666666667</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="48">
+      <c r="B6" s="44">
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="43">
         <v>0.9</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="43">
         <v>0.96666666666666667</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="43">
         <v>0.9</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="43">
         <v>0.95</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="43">
         <v>0.9</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="43">
         <v>0.95</v>
       </c>
-      <c r="J6" s="47">
-        <v>1</v>
-      </c>
-      <c r="K6" s="47">
-        <v>1</v>
-      </c>
-      <c r="L6" s="47">
+      <c r="J6" s="43">
+        <v>1</v>
+      </c>
+      <c r="K6" s="43">
+        <v>1</v>
+      </c>
+      <c r="L6" s="43">
         <v>0.95</v>
       </c>
-      <c r="M6" s="47">
-        <v>1</v>
-      </c>
-      <c r="N6" s="47">
+      <c r="M6" s="43">
+        <v>1</v>
+      </c>
+      <c r="N6" s="43">
         <v>0.9</v>
       </c>
-      <c r="O6" s="47">
+      <c r="O6" s="43">
         <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="48">
+      <c r="B7" s="44">
         <v>3</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="43">
         <v>1.0333333333333334</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="43">
         <v>1.0333333333333334</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="43">
         <v>1.0333333333333334</v>
       </c>
-      <c r="L7" s="47">
+      <c r="L7" s="43">
         <v>1.05</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="43">
         <v>1.0666666666666667</v>
       </c>
-      <c r="N7" s="47">
+      <c r="N7" s="43">
         <v>1.0666666666666667</v>
       </c>
-      <c r="O7" s="47">
+      <c r="O7" s="43">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="48">
+      <c r="B8" s="44">
         <v>4</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="43">
         <v>1.05</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="43">
         <v>0.96666666666666667</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="43">
         <v>0.95</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="43">
         <v>0.95</v>
       </c>
-      <c r="I8" s="47">
-        <v>1</v>
-      </c>
-      <c r="J8" s="47">
-        <v>1</v>
-      </c>
-      <c r="K8" s="47">
-        <v>1</v>
-      </c>
-      <c r="L8" s="47">
+      <c r="I8" s="43">
+        <v>1</v>
+      </c>
+      <c r="J8" s="43">
+        <v>1</v>
+      </c>
+      <c r="K8" s="43">
+        <v>1</v>
+      </c>
+      <c r="L8" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M8" s="47">
+      <c r="M8" s="43">
         <v>1.0666666666666667</v>
       </c>
-      <c r="N8" s="47">
+      <c r="N8" s="43">
         <v>1.0333333333333334</v>
       </c>
-      <c r="O8" s="47">
+      <c r="O8" s="43">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48">
+      <c r="B9" s="44">
         <v>5</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="47">
-        <v>1</v>
-      </c>
-      <c r="E9" s="47">
-        <v>1</v>
-      </c>
-      <c r="F9" s="47">
-        <v>1</v>
-      </c>
-      <c r="G9" s="47">
-        <v>1</v>
-      </c>
-      <c r="H9" s="47">
-        <v>1</v>
-      </c>
-      <c r="I9" s="47">
+      <c r="D9" s="43">
+        <v>1</v>
+      </c>
+      <c r="E9" s="43">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43">
+        <v>1</v>
+      </c>
+      <c r="G9" s="43">
+        <v>1</v>
+      </c>
+      <c r="H9" s="43">
+        <v>1</v>
+      </c>
+      <c r="I9" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="43">
         <v>1.0666666666666667</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="43">
         <v>1.0333333333333334</v>
       </c>
-      <c r="L9" s="47">
-        <v>1</v>
-      </c>
-      <c r="M9" s="47">
+      <c r="L9" s="43">
+        <v>1</v>
+      </c>
+      <c r="M9" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N9" s="47">
+      <c r="N9" s="43">
         <v>1.0333333333333334</v>
       </c>
-      <c r="O9" s="47">
+      <c r="O9" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="48">
+      <c r="B10" s="44">
         <v>6</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="43">
         <v>1.05</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="43">
         <v>1.05</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="43">
         <v>1.05</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L10" s="47">
+      <c r="L10" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M10" s="47">
+      <c r="M10" s="43">
         <v>1.0666666666666667</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="43">
         <v>1.0666666666666667</v>
       </c>
-      <c r="O10" s="47">
+      <c r="O10" s="43">
         <v>1.05</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="48">
+      <c r="B11" s="44">
         <v>7</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="43">
         <v>1.05</v>
       </c>
-      <c r="E11" s="47">
-        <v>1</v>
-      </c>
-      <c r="F11" s="47">
+      <c r="E11" s="43">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="43">
         <v>1.05</v>
       </c>
-      <c r="I11" s="47">
-        <v>1</v>
-      </c>
-      <c r="J11" s="47">
-        <v>1</v>
-      </c>
-      <c r="K11" s="47">
-        <v>1</v>
-      </c>
-      <c r="L11" s="47">
+      <c r="I11" s="43">
+        <v>1</v>
+      </c>
+      <c r="J11" s="43">
+        <v>1</v>
+      </c>
+      <c r="K11" s="43">
+        <v>1</v>
+      </c>
+      <c r="L11" s="43">
         <v>1.05</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N11" s="47">
+      <c r="N11" s="43">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O11" s="47">
+      <c r="O11" s="43">
         <v>1.05</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="47">
         <f>D5*D6*D7*D8*D9*D10*D11</f>
         <v>1.2033511875000003</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="47">
         <f t="shared" ref="E12:O12" si="0">E5*E6*E7*E8*E9*E10*E11</f>
         <v>1.1329619753086422</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="47">
         <f t="shared" si="0"/>
         <v>1.1380050000000002</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="47">
         <f t="shared" si="0"/>
         <v>1.3276725</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="47">
         <f t="shared" si="0"/>
         <v>1.0862775000000002</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="47">
         <f t="shared" si="0"/>
         <v>1.2673237500000001</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="47">
         <f t="shared" si="0"/>
         <v>1.2528592592592596</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="47">
         <f t="shared" si="0"/>
         <v>1.2137074074074077</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="47">
         <f t="shared" si="0"/>
         <v>1.2673237500000001</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="47">
         <f t="shared" si="0"/>
         <v>1.5663913086419756</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="47">
         <f t="shared" si="0"/>
         <v>1.2829278814814817</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="47">
         <f t="shared" si="0"/>
         <v>1.2673237499999999</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="B13" s="49"/>
-      <c r="C13" s="52" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="49">
         <v>1.2033511875000003</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="49">
         <v>1.1329619753086422</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="49">
         <v>1.1380050000000002</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="49">
         <v>1.25</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="49">
         <v>1.0862775000000002</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="49">
         <v>1.25</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="49">
         <v>1.25</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="49">
         <v>1.2137074074074077</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="49">
         <v>1.25</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="49">
         <v>1.25</v>
       </c>
-      <c r="N13" s="53">
+      <c r="N13" s="49">
         <v>1.25</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="49">
         <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2974,18 +2974,18 @@
     <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="39" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="29">
@@ -2999,7 +2999,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="30">
@@ -3013,13 +3013,13 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="33">
         <v>0.6</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="34">
         <v>0.8</v>
       </c>
       <c r="E7" s="26">
@@ -3027,7 +3027,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="30">
@@ -3041,7 +3041,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="41" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="30">
@@ -3055,7 +3055,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="30">
@@ -3069,13 +3069,13 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="35">
         <v>0.6</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="36">
         <v>0.8</v>
       </c>
       <c r="E11" s="27">
@@ -3096,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C3:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3139,7 +3139,7 @@
         <v>24.930378023996418</v>
       </c>
       <c r="G5" s="20">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.2">
@@ -3156,7 +3156,7 @@
         <v>127.10047039378478</v>
       </c>
       <c r="G6" s="20">
-        <v>144000</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.2">
@@ -3173,7 +3173,7 @@
         <v>94.902922219146646</v>
       </c>
       <c r="G7" s="20">
-        <v>108000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.2">
@@ -3190,7 +3190,7 @@
         <v>180.76747089361268</v>
       </c>
       <c r="G8" s="20">
-        <v>240000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.2">
@@ -3207,7 +3207,7 @@
         <v>77.328306993378746</v>
       </c>
       <c r="G9" s="20">
-        <v>84000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.2">
@@ -3224,7 +3224,7 @@
         <v>208.31299026787747</v>
       </c>
       <c r="G10" s="20">
-        <v>264000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.2">
@@ -3241,7 +3241,7 @@
         <v>201.13991107747606</v>
       </c>
       <c r="G11" s="20">
-        <v>252000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.2">
@@ -3258,7 +3258,7 @@
         <v>79.096493449821622</v>
       </c>
       <c r="G12" s="20">
-        <v>96000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
         <v>61.547019851872889</v>
       </c>
       <c r="G13" s="20">
-        <v>78000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.2">
@@ -3292,7 +3292,7 @@
         <v>229.82762864798548</v>
       </c>
       <c r="G14" s="20">
-        <v>360000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.2">
@@ -3309,7 +3309,7 @@
         <v>224.48650789896882</v>
       </c>
       <c r="G15" s="20">
-        <v>288000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="16" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3326,7 +3326,7 @@
         <v>67.859534708475252</v>
       </c>
       <c r="G16" s="22">
-        <v>86000</v>
+        <v>43200</v>
       </c>
     </row>
   </sheetData>
